--- a/appendix/fall-timesheet.xlsx
+++ b/appendix/fall-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benci\College\Class\6th Year\2024 Fall (CS)\CS SENIOR DSGN I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF308997-9787-4EE4-AFDF-7F27E1939A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E9A1B-BDF7-493A-B713-A71DA3256EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Reading peer reviews</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
 </sst>
 </file>
@@ -560,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +588,7 @@
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C92)</f>
-        <v>1760</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1155,8 +1158,12 @@
       <c r="A69" s="6">
         <v>45618</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="B69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="6">

--- a/appendix/fall-timesheet.xlsx
+++ b/appendix/fall-timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benci\College\Class\6th Year\2024 Fall (CS)\CS SENIOR DSGN I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E9A1B-BDF7-493A-B713-A71DA3256EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F029BF-E5C3-440D-A3F2-8D6153070C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -563,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C92)</f>
-        <v>1940</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1183,8 +1183,12 @@
       <c r="A72" s="5">
         <v>45621</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
@@ -1225,15 +1229,23 @@
       <c r="A78" s="5">
         <v>45627</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="1">
+        <v>130</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>45628</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
